--- a/county_pca_kmeans_results.xlsx
+++ b/county_pca_kmeans_results.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacqu/Documents/SPADA/county_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacqu/Documents/SPADA/COVID_Clustering_USA_Counties/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D9CE89-6930-F64D-8EFD-9AC145DA352D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB09E8A-3303-E94A-8500-995BD84CA9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14380" xr2:uid="{7B15EB85-585D-0342-BD7F-71FE7BD5855F}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="14380" xr2:uid="{7B15EB85-585D-0342-BD7F-71FE7BD5855F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,27 +33,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
-  <si>
-    <t>2D PCA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t># Counties</t>
   </si>
   <si>
-    <t>Max Daily Cases</t>
-  </si>
-  <si>
-    <t>Total Cases</t>
-  </si>
-  <si>
-    <t>Ave Date of First Case</t>
-  </si>
-  <si>
     <t>Cluster</t>
   </si>
   <si>
     <t>Original</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>TSNE</t>
+  </si>
+  <si>
+    <t>UMAP</t>
+  </si>
+  <si>
+    <t>Max Cases</t>
+  </si>
+  <si>
+    <t>Min Cases</t>
+  </si>
+  <si>
+    <t>Mean Cases</t>
+  </si>
+  <si>
+    <t>Mean Date of First Case</t>
+  </si>
+  <si>
+    <t>Median Cases</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t># Counties Changed Clusters</t>
   </si>
 </sst>
 </file>
@@ -74,7 +92,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,18 +101,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -124,11 +154,76 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -155,58 +250,56 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EB108F-4C72-2542-BCBE-F3973C2D6950}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
@@ -529,172 +622,550 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" t="s">
+      <c r="A1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2">
+      <c r="A2" s="35">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1079</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1112</v>
+      </c>
+      <c r="E2" s="9">
+        <v>717</v>
+      </c>
+      <c r="F2" s="11">
+        <v>787</v>
+      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7">
+        <v>265</v>
+      </c>
+      <c r="D3" s="5">
+        <v>269</v>
+      </c>
+      <c r="E3" s="9">
+        <v>158</v>
+      </c>
+      <c r="F3" s="11">
+        <v>93</v>
+      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7">
+        <v>796</v>
+      </c>
+      <c r="D4" s="5">
+        <v>862</v>
+      </c>
+      <c r="E4" s="9">
+        <v>407</v>
+      </c>
+      <c r="F4" s="11">
+        <v>312.73</v>
+      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="29">
+        <v>9</v>
+      </c>
+      <c r="D5" s="31">
+        <v>9</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1</v>
+      </c>
+      <c r="F5" s="33">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6">
+      <c r="A6" s="35"/>
+      <c r="B6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>37072</v>
+      </c>
+      <c r="D6" s="5">
+        <v>37072</v>
+      </c>
+      <c r="E6" s="9">
+        <v>14925</v>
+      </c>
+      <c r="F6" s="11">
+        <v>17816</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="36"/>
+      <c r="B7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="30">
+        <v>43919</v>
+      </c>
+      <c r="D7" s="26">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="27">
+        <v>43928</v>
+      </c>
+      <c r="F7" s="28">
+        <v>43932</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="35">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1443</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1407</v>
+      </c>
+      <c r="E8" s="9">
+        <v>820</v>
+      </c>
+      <c r="F8" s="11">
+        <v>734</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="35"/>
+      <c r="B9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7">
+        <v>72</v>
+      </c>
+      <c r="D9" s="5">
+        <v>68</v>
+      </c>
+      <c r="E9" s="9">
+        <v>47</v>
+      </c>
+      <c r="F9" s="11">
+        <v>73</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="35"/>
+      <c r="B10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
+        <v>387</v>
+      </c>
+      <c r="D10" s="5">
+        <v>375</v>
+      </c>
+      <c r="E10" s="9">
+        <v>271</v>
+      </c>
+      <c r="F10" s="11">
+        <v>384</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="35"/>
+      <c r="B11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="3" t="s">
+      <c r="D11" s="31">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="35"/>
+      <c r="B12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7">
+        <v>44005</v>
+      </c>
+      <c r="D12" s="5">
+        <v>44005</v>
+      </c>
+      <c r="E12" s="9">
+        <v>44005</v>
+      </c>
+      <c r="F12" s="11">
+        <v>44005</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="35"/>
+      <c r="B13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8">
+        <v>43934</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43934</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43940</v>
+      </c>
+      <c r="F13" s="12">
+        <v>43935</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="37">
         <v>2</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="3" t="s">
+      <c r="B14" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
+        <v>455</v>
+      </c>
+      <c r="D14" s="14">
+        <v>426</v>
+      </c>
+      <c r="E14" s="15">
+        <v>947</v>
+      </c>
+      <c r="F14" s="16">
+        <v>973</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="35"/>
+      <c r="B15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1720</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1681</v>
+      </c>
+      <c r="E15" s="9">
+        <v>766</v>
+      </c>
+      <c r="F15" s="11">
+        <v>758</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="35"/>
+      <c r="B16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5596</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5780</v>
+      </c>
+      <c r="E16" s="9">
+        <v>3256</v>
+      </c>
+      <c r="F16" s="11">
+        <v>3194</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35"/>
+      <c r="B17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7">
+        <v>96</v>
+      </c>
+      <c r="D17" s="5">
+        <v>96</v>
+      </c>
+      <c r="E17" s="32">
+        <v>24</v>
+      </c>
+      <c r="F17" s="11">
+        <v>26</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35"/>
+      <c r="B18" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7">
+        <v>220762</v>
+      </c>
+      <c r="D18" s="5">
+        <v>220762</v>
+      </c>
+      <c r="E18" s="9">
+        <v>220762</v>
+      </c>
+      <c r="F18" s="11">
+        <v>220762</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35"/>
+      <c r="B19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="8">
+        <v>43907</v>
+      </c>
+      <c r="D19" s="6">
+        <v>43907</v>
+      </c>
+      <c r="E19" s="27">
+        <v>43911</v>
+      </c>
+      <c r="F19" s="12">
+        <v>43911</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="37">
         <v>3</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B20" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <v>224</v>
+      </c>
+      <c r="D20" s="14">
+        <v>256</v>
+      </c>
+      <c r="E20" s="15">
+        <v>717</v>
+      </c>
+      <c r="F20" s="16">
+        <v>707</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35"/>
+      <c r="B21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1507</v>
+      </c>
+      <c r="D21" s="31">
+        <v>1369</v>
+      </c>
+      <c r="E21" s="32">
+        <v>387</v>
+      </c>
+      <c r="F21" s="33">
+        <v>367</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="35"/>
+      <c r="B22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="7">
+        <v>6204</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5494</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2450</v>
+      </c>
+      <c r="F22" s="11">
+        <v>2431</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="35"/>
+      <c r="B23" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7">
+        <v>61</v>
+      </c>
+      <c r="D23" s="5">
+        <v>61</v>
+      </c>
+      <c r="E23" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="12"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="12"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="F23" s="11">
         <v>1</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="13"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="35"/>
+      <c r="B24" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="7">
+        <v>234609</v>
+      </c>
+      <c r="D24" s="5">
+        <v>234609</v>
+      </c>
+      <c r="E24" s="9">
+        <v>234609</v>
+      </c>
+      <c r="F24" s="11">
+        <v>234609</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="36"/>
+      <c r="B25" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="30">
+        <v>43906</v>
+      </c>
+      <c r="D25" s="26">
+        <v>43907</v>
+      </c>
+      <c r="E25" s="27">
+        <v>43914</v>
+      </c>
+      <c r="F25" s="28">
+        <v>43918</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="19">
+        <v>197</v>
+      </c>
+      <c r="E26" s="20">
+        <v>1338</v>
+      </c>
+      <c r="F26" s="21">
+        <v>1587</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
